--- a/Assets/Resources/Data/Enemy/Dragon.xlsx
+++ b/Assets/Resources/Data/Enemy/Dragon.xlsx
@@ -405,7 +405,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -426,7 +426,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>

--- a/Assets/Resources/Data/Enemy/Dragon.xlsx
+++ b/Assets/Resources/Data/Enemy/Dragon.xlsx
@@ -1,15 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27715"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ikumu/Documents/UnityProject/MatrixCode/Assets/Resources/Data/Enemy/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="16155" windowHeight="7830"/>
+    <workbookView xWindow="360" yWindow="460" windowWidth="16160" windowHeight="7840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -59,14 +72,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -116,7 +129,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ホワイト">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -158,12 +171,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -193,12 +206,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -405,12 +418,12 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -421,18 +434,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1">
-        <v>20</v>
+        <v>-100</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -443,7 +456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -454,7 +467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -465,7 +478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -476,7 +489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -487,7 +500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
